--- a/biology/Botanique/Soupe_de_patates_douces/Soupe_de_patates_douces.xlsx
+++ b/biology/Botanique/Soupe_de_patates_douces/Soupe_de_patates_douces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La soupe de patates douces est un dessert chinois qui est une spécialité du  sud de la Chine et de Hong Kong[1].
+La soupe de patates douces est un dessert chinois qui est une spécialité du  sud de la Chine et de Hong Kong.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Cuisine cantonaise</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la cuisine cantonaise, elle est classée dans la catégorie des tong sui ou soupes sucrées, d'où le nom chinois. Cette soupe a généralement une texture fine mais un goût puissant. La recette est simple, elle consiste à faire bouillir longuement les patates douces avec du sucre candi et du gingembre . La patate douce est l’un des légumes les plus répandus et les plus abondants en Chine[2]. Grâce à sa recette simple et à la grande disponibilité des tubercules, la soupe de patate douce est l'un des tong sui les plus accessibles et les plus abordables de la région.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la cuisine cantonaise, elle est classée dans la catégorie des tong sui ou soupes sucrées, d'où le nom chinois. Cette soupe a généralement une texture fine mais un goût puissant. La recette est simple, elle consiste à faire bouillir longuement les patates douces avec du sucre candi et du gingembre . La patate douce est l’un des légumes les plus répandus et les plus abondants en Chine. Grâce à sa recette simple et à la grande disponibilité des tubercules, la soupe de patate douce est l'un des tong sui les plus accessibles et les plus abordables de la région.
 </t>
         </is>
       </c>
